--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2015269.346525134</v>
+        <v>2119448.980976204</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>192.0524966157158</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>173.5578851713674</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -741,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646394</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8428862394544</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>192.4191759162214</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>148.4399041872981</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>277.3605237366031</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.144908175364755</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>61.36917500887012</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>273.85642674403</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>125.8964770521859</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.95689391916343</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>53.94890726907935</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>28.75188085812005</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>91.40260836685427</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>113.0992099793449</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>187.0564927499865</v>
+        <v>126.9420388308264</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>10.74993283584265</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>46.15319674220996</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>261.5505590167096</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>113.8415422301048</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695601</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,19 +3237,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>164.8224308749147</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>33.45472478220952</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8253826161909023</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>64.35711883683373</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3021.322732312311</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2767.792255586147</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="V2" t="n">
-        <v>2436.729368242576</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W2" t="n">
-        <v>2083.960712972462</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X2" t="n">
-        <v>1710.494954711382</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y2" t="n">
-        <v>1320.35562273557</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.6287558445192</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>437.4213349880492</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>437.4213349880492</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>437.4213349880492</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.6287558445192</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1767.87852028569</v>
+        <v>1881.708680670285</v>
       </c>
       <c r="C5" t="n">
-        <v>1767.87852028569</v>
+        <v>1512.746163729873</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1154.480465123123</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>768.6922125248784</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>357.7063077352709</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>346.6742616206714</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,7 +4582,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.87852028569</v>
+        <v>2268.308520734407</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.5011820977088</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C7" t="n">
-        <v>128.5011820977088</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>128.5011820977088</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>128.5011820977088</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>128.5011820977088</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4750,25 +4752,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5011820977088</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>128.5011820977088</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W7" t="n">
-        <v>128.5011820977088</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X7" t="n">
-        <v>128.5011820977088</v>
+        <v>603.0669976776956</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.5011820977088</v>
+        <v>382.2744185341654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1278.358723975039</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2055.097896014972</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1664.958564039161</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,10 +4886,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>510.7590362090544</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C10" t="n">
-        <v>510.7590362090544</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967187</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>866.3931600918422</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757124</v>
+        <v>674.7072759186685</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757124</v>
+        <v>452.9406604881945</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757124</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="V10" t="n">
-        <v>576.3720603698256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="W10" t="n">
-        <v>576.3720603698256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="X10" t="n">
-        <v>576.3720603698256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="Y10" t="n">
-        <v>576.3720603698256</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5081,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5236,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="14">
@@ -5282,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,22 +5415,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171337</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>733.4550657171337</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>583.338426304798</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>435.4253327224048</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5692,31 +5694,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487571</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831769</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588921</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.896109690904</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473735</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5789,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5837,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290469</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1788.515128237795</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="W22" t="n">
-        <v>1499.097958200834</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X22" t="n">
-        <v>1271.108407302817</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159287</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558405</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C25" t="n">
-        <v>2588.787486630498</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D25" t="n">
-        <v>2588.787486630498</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E25" t="n">
-        <v>2588.787486630498</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F25" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2421.591387345378</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3113.560578231861</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C28" t="n">
-        <v>2944.624395303954</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.507755891619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309225</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309225</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024105</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4577.168058002298</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4288.092831346496</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V28" t="n">
-        <v>4033.408343140609</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W28" t="n">
-        <v>3743.991173103648</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X28" t="n">
-        <v>3516.001622205631</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y28" t="n">
-        <v>3295.209043062101</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,16 +6451,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,16 +6469,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1029.292738813773</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="32">
@@ -6683,28 +6685,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782918</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038303</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797704</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="35">
@@ -6932,10 +6934,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7023,19 +7025,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E37" t="n">
-        <v>261.8464821474262</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,22 +7162,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7494,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7724,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.73277020259215</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>54.01843965607698</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>112.6104454096922</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>65.08115057384154</v>
+        <v>125.1956044930016</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>171.2522535850783</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>24.63391537253455</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>111.8681131589323</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>52.58301945237358</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>112.9792378643596</v>
       </c>
       <c r="F37" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>102.8897022617941</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>10.32607348286601</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752548</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752544</v>
-      </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="G4" t="n">
-        <v>15436.64000687972</v>
-      </c>
       <c r="H4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687963</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="O4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687966</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.147241433</v>
+        <v>-935020.1472414336</v>
       </c>
       <c r="C6" t="n">
         <v>393724.5984861595</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.59848616</v>
+        <v>393724.5984861593</v>
       </c>
       <c r="E6" t="n">
-        <v>143209.6531371121</v>
+        <v>143209.6531371127</v>
       </c>
       <c r="F6" t="n">
-        <v>468622.1149444676</v>
+        <v>468622.1149444677</v>
       </c>
       <c r="G6" t="n">
-        <v>468622.114944468</v>
+        <v>468622.1149444675</v>
       </c>
       <c r="H6" t="n">
         <v>468622.1149444676</v>
       </c>
       <c r="I6" t="n">
-        <v>468622.1149444678</v>
+        <v>468622.1149444674</v>
       </c>
       <c r="J6" t="n">
         <v>251090.9125471903</v>
       </c>
       <c r="K6" t="n">
-        <v>468622.1149444677</v>
+        <v>468622.1149444674</v>
       </c>
       <c r="L6" t="n">
+        <v>468622.1149444674</v>
+      </c>
+      <c r="M6" t="n">
+        <v>383567.0870089556</v>
+      </c>
+      <c r="N6" t="n">
+        <v>468622.1149444675</v>
+      </c>
+      <c r="O6" t="n">
+        <v>468622.1149444675</v>
+      </c>
+      <c r="P6" t="n">
         <v>468622.1149444676</v>
-      </c>
-      <c r="M6" t="n">
-        <v>383567.0870089558</v>
-      </c>
-      <c r="N6" t="n">
-        <v>468622.1149444677</v>
-      </c>
-      <c r="O6" t="n">
-        <v>468622.1149444678</v>
-      </c>
-      <c r="P6" t="n">
-        <v>468622.1149444677</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27397,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>11.86547352390431</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>77.43728678753459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27540,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.772586778757926</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,10 +27593,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>59.7184674076066</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>206.2431374333848</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>17.24724065071734</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>179.6870720065725</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>34.98324540096797</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>108.8774149194505</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>243.8346236262831</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>114.8750862627739</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>34.98324540096798</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29746,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29928,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32248,7 +32250,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
         <v>790.8204499236507</v>
@@ -32257,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32312,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,13 +32557,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32719,7 +32721,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460027</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>295.9743940159484</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33202,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33263,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33743,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33979,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>637.8521160493917</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34214,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34369,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,10 +34456,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N45" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36060,7 +36062,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572999021</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36367,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>161.9999866016181</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294939</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37391,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>499.2977362695175</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37862,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,10 +38104,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N45" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2119448.980976204</v>
+        <v>2115436.370962212</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9734589.108662385</v>
+        <v>9734589.108662384</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>235.1550917323862</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>173.5578851713674</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646394</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>146.8428862394544</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.08207384182843</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>147.2339392611586</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>277.3605237366031</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.144908175364755</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>128.8426486392075</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>273.85642674403</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777583</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>53.94890726907935</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386407</v>
       </c>
     </row>
     <row r="11">
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>78.6882778203391</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>34.45703212903921</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>113.0992099793449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>126.9420388308264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>10.74993283584265</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>79.41314830963806</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>261.5505590167096</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>113.8415422301048</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
-        <v>164.8224308749147</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>33.45472478220952</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>53.07327741456097</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>64.35711883683373</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>135.0949745400652</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1647.321240915451</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1278.358723975039</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3150.294826486578</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>3150.294826486578</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W2" t="n">
-        <v>2797.526171216464</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.060412955384</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y2" t="n">
-        <v>2033.921080979572</v>
+        <v>2582.697834363244</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181855</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C4" t="n">
-        <v>920.8870058181855</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181855</v>
+        <v>640.2892995243812</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.708680670285</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1512.746163729873</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.480465123123</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E5" t="n">
-        <v>768.6922125248784</v>
+        <v>268.2622120761612</v>
       </c>
       <c r="F5" t="n">
-        <v>357.7063077352709</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>346.6742616206714</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.308520734407</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,49 +4649,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.1280466398576</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C7" t="n">
-        <v>382.1280466398576</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398576</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>790.7429162836319</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>790.7429162836319</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>790.7429162836319</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>790.7429162836319</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0565485757129</v>
+        <v>790.7429162836319</v>
       </c>
       <c r="X7" t="n">
-        <v>603.0669976776956</v>
+        <v>562.7533653856145</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.2744185341654</v>
+        <v>562.7533653856145</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>866.3931600918422</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>674.7072759186685</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>452.9406604881945</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>840.8417932021781</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2020.349486996071</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.972636491139</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1031.260321675049</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C13" t="n">
-        <v>862.3241387471426</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>712.2074993348068</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>564.2944057524137</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5214,37 +5214,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853353</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.701365648819</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>1212.908786505289</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>904.461687384549</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5746,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1560.161572207407</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>962.6357307816187</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>793.6995478537118</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>643.582908441376</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>495.6698148589829</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.284195611858</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>538.7363435406111</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>256.118667722925</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1713.268596655246</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1458.584108449359</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1169.166938412398</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>941.1773875143809</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y28" t="n">
-        <v>720.3848083708508</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,16 +6469,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1029.292738813773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782918</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038303</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832659</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2213.430075918604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1924.354849262801</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1669.670361056914</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1380.253191019954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1152.263640121936</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>931.4710609784063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>984.5467179762944</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>815.6105350483875</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>665.4938956360518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2395.078540748843</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2106.003314093041</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>545.3854261579752</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>397.4723325755821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>66.73277020259215</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>31.91821458108249</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.4596884482355</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>125.1956044930016</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>134.6711151870886</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>60.88156453658583</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>24.63391537253455</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>111.8681131589323</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
-        <v>52.58301945237358</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>112.9792378643596</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>114.1735436840669</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>102.8897022617941</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>10.32607348286601</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425518</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.9198425518</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="I2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="K2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="L2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="H4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26450,16 +26450,16 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414336</v>
+        <v>-935020.1472414332</v>
       </c>
       <c r="C6" t="n">
         <v>393724.5984861595</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861593</v>
+        <v>393724.5984861595</v>
       </c>
       <c r="E6" t="n">
-        <v>143209.6531371127</v>
+        <v>142862.2738827559</v>
       </c>
       <c r="F6" t="n">
-        <v>468622.1149444677</v>
+        <v>468274.7356901107</v>
       </c>
       <c r="G6" t="n">
-        <v>468622.1149444675</v>
+        <v>468274.7356901106</v>
       </c>
       <c r="H6" t="n">
-        <v>468622.1149444676</v>
+        <v>468274.7356901108</v>
       </c>
       <c r="I6" t="n">
-        <v>468622.1149444674</v>
+        <v>468274.7356901108</v>
       </c>
       <c r="J6" t="n">
-        <v>251090.9125471903</v>
+        <v>250743.5332928332</v>
       </c>
       <c r="K6" t="n">
-        <v>468622.1149444674</v>
+        <v>468274.7356901108</v>
       </c>
       <c r="L6" t="n">
-        <v>468622.1149444674</v>
+        <v>468274.7356901107</v>
       </c>
       <c r="M6" t="n">
-        <v>383567.0870089556</v>
+        <v>383219.707754599</v>
       </c>
       <c r="N6" t="n">
-        <v>468622.1149444675</v>
+        <v>468274.7356901107</v>
       </c>
       <c r="O6" t="n">
-        <v>468622.1149444675</v>
+        <v>468274.7356901105</v>
       </c>
       <c r="P6" t="n">
-        <v>468622.1149444676</v>
+        <v>468274.7356901105</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>147.5787499310944</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>77.43728678753459</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>1.772586778757926</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.5025795102663</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>259.6421064805528</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>17.24724065071734</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.6870720065725</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>60.92637669223441</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108.8774149194505</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923767</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>34.98324540096798</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282307</v>
       </c>
     </row>
     <row r="11">
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28286,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270676</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>468.9317632523004</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32250,7 +32250,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
         <v>790.8204499236507</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.1905571410461</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060378</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>330.3773834724262</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899028</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326294939</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2115436.370962212</v>
+        <v>2117196.901264997</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9734589.108662384</v>
+        <v>9734589.108662385</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.1550917323862</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>111.4702381038683</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>205.6410385253396</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.08207384182843</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>210.6046526660748</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>147.2339392611586</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>128.8426486392075</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>177.2979137777577</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777583</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386407</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444126</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.45703212903921</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833367</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>101.1785556175222</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>176.7621441121437</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>79.41314830963806</v>
+        <v>135.5795121770518</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>44.7513807668926</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>100.5858322992699</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>53.07327741456097</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2162996298073</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2972.837166339056</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="Y2" t="n">
-        <v>2582.697834363244</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.6408346941415</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>458.6408346941415</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
         <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201675</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="Y4" t="n">
-        <v>640.2892995243812</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221568</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281156</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744055</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761612</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064583</v>
@@ -4646,16 +4646,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4667,31 +4667,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.1049005553748</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4725,52 +4725,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>790.7429162836319</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>790.7429162836319</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>790.7429162836319</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>790.7429162836319</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>790.7429162836319</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>562.7533653856145</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>562.7533653856145</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>287.5978169884295</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4962,49 +4962,49 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
         <v>862.0164446829692</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021781</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996071</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.972636491139</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5214,37 +5214,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2412.158000621627</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2412.158000621627</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2412.158000621627</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5263,7 +5263,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,31 +5275,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>904.461687384549</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.840175011101</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400667</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121598</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998241</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797186</v>
+        <v>424.993875127789</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>278.1039276298786</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5439,49 +5439,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138365</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703064</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5518,19 +5518,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5655,16 +5655,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,19 +5740,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5931,31 +5931,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.9745311434712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>701.0383482155643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>550.9217088032285</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E28" t="n">
-        <v>403.0086152208354</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F28" t="n">
-        <v>256.118667722925</v>
+        <v>230.7656652470141</v>
       </c>
       <c r="G28" t="n">
-        <v>256.118667722925</v>
+        <v>230.7656652470141</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.622995973711</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2401.759668664207</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6885,10 +6885,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7551,19 +7551,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>31.91821458108249</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>46.4596884482355</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>64.34558267474668</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>109.4223302771005</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>60.88156453658583</v>
+        <v>4.715200669172049</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>136.274905234752</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>114.1735436840669</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841963.9198425518</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841963.9198425518</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.9198425522</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.9198425522</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752545</v>
@@ -26337,25 +26337,25 @@
         <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="O2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405263</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405257</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>93596.74410405254</v>
       </c>
-      <c r="D4" t="n">
-        <v>93596.74410405252</v>
-      </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687973</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414332</v>
+        <v>-935020.1472414327</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861595</v>
+        <v>393724.5984861596</v>
       </c>
       <c r="D6" t="n">
         <v>393724.5984861595</v>
       </c>
       <c r="E6" t="n">
-        <v>142862.2738827559</v>
+        <v>143174.9152116769</v>
       </c>
       <c r="F6" t="n">
-        <v>468274.7356901107</v>
+        <v>468587.3770190314</v>
       </c>
       <c r="G6" t="n">
-        <v>468274.7356901106</v>
+        <v>468587.3770190322</v>
       </c>
       <c r="H6" t="n">
-        <v>468274.7356901108</v>
+        <v>468587.377019032</v>
       </c>
       <c r="I6" t="n">
-        <v>468274.7356901108</v>
+        <v>468587.377019032</v>
       </c>
       <c r="J6" t="n">
-        <v>250743.5332928332</v>
+        <v>251056.1746217543</v>
       </c>
       <c r="K6" t="n">
-        <v>468274.7356901108</v>
+        <v>468587.3770190319</v>
       </c>
       <c r="L6" t="n">
-        <v>468274.7356901107</v>
+        <v>468587.377019032</v>
       </c>
       <c r="M6" t="n">
-        <v>383219.707754599</v>
+        <v>383532.3490835201</v>
       </c>
       <c r="N6" t="n">
-        <v>468274.7356901107</v>
+        <v>468587.3770190318</v>
       </c>
       <c r="O6" t="n">
-        <v>468274.7356901105</v>
+        <v>468587.3770190319</v>
       </c>
       <c r="P6" t="n">
-        <v>468274.7356901105</v>
+        <v>468587.3770190319</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>147.5787499310944</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>258.2608625746008</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>20.06861686369754</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.5025795102663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>154.6682391049328</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>259.6421064805528</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>60.92637669223441</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>117.3098506095628</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923767</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282307</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28101,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28286,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-7.541226902200529e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270676</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>468.9317632523004</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -33195,7 +33195,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410461</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060378</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>330.3773834724262</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899028</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36299,7 +36299,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999021</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
